--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/5_Aksaray_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/5_Aksaray_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C496F4F8-FDD2-45D3-83A9-2F35EEBD29A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF6F011F-63C1-4B59-82D2-B9DCE22846EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{B3FEF8C7-9CD8-4A84-878C-FF07685C547E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{CAF376E7-32B4-43C0-9FCF-7AE7AB18F8DD}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -932,14 +932,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3DFD6D1F-8215-4C72-99ED-0DB4A29CA56E}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DDDC9312-6B93-451B-8E3F-D7F2426408B1}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{119294A7-3D46-46C6-9348-B7FEE1DE571D}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{C99CC0F9-33D2-4433-8FE1-59CE54AD99E8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{A35BDF66-1059-466B-A7E9-8B30BBDB3850}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D4120C53-52BF-41A0-92F3-5D54C381ED92}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{4E1EDE84-D128-4353-B292-0BF359E70D07}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{7063FD75-107B-463A-8C93-43ACB18DB8C2}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{70EA3D18-2500-4F62-B6CC-9E9D7DE5D0FC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{770390BD-4195-4F7B-B2E4-E142BCE39B5F}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{7E5D471F-F714-4E55-B630-D5922DC888A6}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{4D0B89DC-B10A-41F6-85F2-847FDC3A065F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{17581E7A-1C51-4FEE-AA66-4A9B934E32B6}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A41D3319-E5BD-4C88-A8A9-7312DA857AF3}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{9078B6E0-D66B-49FC-B972-B438929AF709}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{1E312576-B123-4C69-B7F2-769C1DC8FBE4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1309,7 +1309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6547D375-AED6-40E2-9E51-E77D1E164841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BB6659-2CAA-43CD-93F3-EFF776944BAB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2550,18 +2550,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ABE845E0-D77F-4173-B05E-3F7CB75FDEF8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2DEA0FCD-5698-4442-959F-8283EA14BE34}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60E42880-380A-41C9-8A4C-0CF2424D0756}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{47076014-B87C-404A-9371-717A27E45A87}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7D911BE7-D165-4BB2-B564-3448D8B26A72}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5B54B0D5-2D36-41DE-AFA9-06253811D4FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D4E6512-42C1-49F7-AC86-EAE93092D6E4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE3EDE26-4AF3-4FE5-9B98-5300B48799CA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D59D4DC1-B358-4F53-BF31-12BD652F8B95}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F23D8A8-F2C9-4891-8A53-44A430966600}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{051F692D-34E1-4206-8774-992792095A31}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C22F949-CE78-45CD-88E4-3D0E631D7CED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0AC38B24-C872-4DC2-8C92-F64BE4B6347D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F32C5224-9812-4C50-8742-B58E4A7BA0DB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BCA13BD6-C261-4309-B3B9-013AA055D335}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6858B8BC-DBE2-406B-B203-3622DA23E529}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{39AFAE69-0CA2-4100-987C-5F19EF4627B7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C83554B8-FF67-4673-AD55-C5DF6465DE8E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E1FEEA6-EDE7-4ABC-A22B-8931D70DBF06}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7979C5B5-6224-45C3-8A18-825255881DA9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B6659F9B-46E3-4D43-BA0E-0EE9286C57F6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{87C0363A-AC54-4C72-9B3A-FCA0BDEC0A19}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39BF3D63-8E06-4686-8006-1389C43DE56A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5AEF4A8-E2BA-4A4D-B7DE-BC2202F446E1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2574,7 +2574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753A1C84-C30E-424E-AA8D-1DA54B2047E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF8E9AE-FE9D-47F2-AD3F-2792117BB460}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3795,18 +3795,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{80706FD0-0562-4209-B2F9-52D6A7DD6731}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2A4A6712-AF63-4255-88BA-DF0439C3600F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30B769D5-27AB-4697-BC1F-FC4C087882D5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7A14CD8E-8D13-4D20-A064-AE542F3799A8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F325ED55-3F28-4B57-8277-505F1B05F8F9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C4355031-BC0E-474D-9D2D-63B85D5DF8EC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{472D1BE0-5A38-4BCE-B538-56ED744D43C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03139462-9003-4063-A0ED-E60CB329CB13}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73FD8045-680C-4B7B-B99D-818B912C9BF9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9129285E-6D66-4306-987C-C763CCD86C57}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34BEBAD4-0EA9-41B1-8DA7-02B4136EEFFC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A257D31E-DC24-4BE7-B03C-476FD2A08A6A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69C67D56-0E58-4196-AC2D-B2C418885039}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2AAAD0F6-D05B-4848-A756-46B6221BFE30}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F57CED5-3344-4043-814A-7939A01D209A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{325D3822-6907-45AA-B49B-8DC3C95EF9DE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0AA40595-C908-4310-9BF6-EB20C1068F0E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E91A79D2-F722-48B6-9BBE-905B9E26F0AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5112D7A-47FF-4C63-805E-4B181DE99088}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9E3B78F-6879-48E6-8D76-D039FA4081F3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89752412-4F91-4F65-9786-86CB58FF9716}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F762A87F-B248-4C13-8D30-137EB80DEDBE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D1C0A07-8032-46D4-85C8-CE4C6EC90682}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BCC53FD-299E-4F4A-B7F6-42B6DDD23C1E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3819,7 +3819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DFF6BC-B10D-428B-921E-304D663BBD5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0613C8BB-A883-4908-9778-EF6307C3CD9D}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5036,18 +5036,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B2B60FB-7C5D-44FF-BA8F-8982F71E0E87}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{37887ECE-DA71-4B51-A875-E244B6912FC0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7B5A914-3CE7-49F7-ACB1-5BFCE462598D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2FDF649A-0822-4CD1-8213-28723A341E1D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B67A6A9-D4D2-432D-84C0-BE6E9F49E7A1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68CDA345-882A-4062-959A-FF0DEED50E83}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07A95DF3-5E4C-460C-AA0C-4E74234A2833}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F8122600-0AB3-44CF-9CC6-D7077A09304B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{16666D0F-AC0B-45A4-8AAD-39072A7F98A8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BFAE9475-4883-418F-B702-47F66EFC372C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26E56AC9-1A19-4713-8E48-9740ADE87DA1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D9A30D73-9D49-4D2D-8C53-4DE6052CF80B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F8B93E82-CEC9-42D3-9B7C-C3218BFF7BB1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E8FA1205-355C-4C51-A5BC-4F55FF856E5E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7609AE4B-D811-48B1-944A-E6720AE1B238}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EA837B7D-799C-4C6F-B7E2-9602852509DE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{94F596F9-6969-475E-8BD2-77ADE36F12F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1A220B83-AA27-41EF-B2A4-695C9DE9FB53}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F24438B-A1FF-4B2E-B0C7-75138B0FE659}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2708D7B9-0FA6-4C0C-8305-57401A159241}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B5F33CE4-0593-4257-B3E5-7A6D2787803E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{23A5D1E5-7EBD-42D5-B6F8-F5C89D2F940F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94FB37B8-587E-4B98-AD2F-5217786E6115}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F14510C1-1EB2-4D49-90E0-F830BFBC656C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5060,7 +5060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FEB783-0F67-476D-BA66-FD7D02C868AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC369E1F-4F97-443B-90B6-CACB235C1A07}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6269,18 +6269,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{011A2677-C33F-42B0-AF02-22BE95F182C3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{37A3D450-4C71-4252-BCAF-2A32F72659EC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE94DA99-0E1A-4177-92B3-18083B04F78A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0C1FA941-8FAE-45AE-81F0-C94617DA2A63}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8D57DFC-B750-4CD2-8A87-EF4C306BDF71}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FBC2BDDD-A374-48E3-A071-EB42D0646A2E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C744369B-A770-47A0-8844-F8FD50471D2E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE87535E-8425-4292-B412-7B895885390C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0530852B-3977-4ECB-BE5D-5D6E82E97609}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D93A776B-F438-47C5-B51A-091C095EF9AD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{631BC161-3466-4D27-BA9D-ACBD88330D22}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9CF47847-7414-48A8-8C54-1E72D759A402}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F326F6C-AAB7-4F52-8A01-EFED6EEC46C3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9D20E864-7C9F-4090-850F-198C49510978}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA05B42E-E9E5-4446-8BB4-67BC4016596F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{87132A75-BD6F-4309-8385-2884E476C917}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89C033E1-ED46-4031-ABBC-3A63BBEBD1FC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D6BE6B14-6AE4-4ED4-B891-02CACE83C3E6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A767EC18-E476-48C0-A8AA-BAE120221DEA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1057967-BA66-4EC9-A583-300FC0B016CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF437BB8-BD6F-440C-87F5-1EC917C945DE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4967AB32-AE4D-4D4C-90CD-3C98E88E4928}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85826A1F-7E3A-4AF4-9458-C518870203A0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD67D74B-6ECE-4240-9361-E5265964CCD5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6293,7 +6293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1845D09F-752A-4DE0-AB04-84EA9985B3A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5A9ED3-46E2-4BC5-926E-755E74463D7F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7534,18 +7534,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5CA1D92-2284-4D9E-A2D2-A8FC393732B7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6AD798B6-3DAD-41DB-843E-43163A18A82B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3EED5AE-3805-45BC-8511-CA5454420404}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F715365D-892B-4A2A-B986-9840D02F8D63}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C98AC9E9-4468-4AFE-87CF-077D98FF763E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B66256C3-3757-4B5C-9B6C-96A77E3A5740}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4CC0D090-533D-41F9-B777-D04538E6FFB5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1D8E9DD-7F3B-49DE-967C-7908C7B1E134}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FCF358F8-25D5-41FD-99FE-D95511D7F5C1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{15E2EACA-22B9-4034-A613-939E09F06569}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D55BF41-CF6C-4A7B-BC0C-874924D15B96}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CADF80B1-06F4-4E99-BAD9-7F31993216E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EDAB2A8E-A76E-46FE-B285-8C6756361FCB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{506BF5B7-38D9-493C-9E8C-0B3BD6A2B144}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9845F557-DEA1-4F8A-8B91-842453DD7CCB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C2A963FE-7148-4285-A426-65E497BFEBDE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF0AFE43-3634-4390-95F9-E18CD5A8827D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CB84E340-99BC-4D31-946A-21A42B824111}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BD51520-F5DA-41E1-BD3D-167A10DA82E1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D324C07-A4CA-4390-8228-21607C728EBE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A7794FF0-C3F0-4F79-AA1B-D35C4B8F8DF1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E869D038-536A-4964-9DBE-23434A326207}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9483BEE1-8A4C-4652-B3F0-80500859951B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{78BCB6AA-2B32-4EEF-93F7-415DAC56859D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7558,7 +7558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ADC011-A8A3-4CCE-9267-1B3713E38C8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09CAB56-EADB-4DDA-BDC0-51826EDD3FB1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8799,18 +8799,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9771756B-01D9-4064-A853-D9B8236B3F0D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3533694A-27F9-4AF5-9ED2-DFB94239EFD3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD66531E-64FE-4590-86AB-F6E1B8CD93F4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F34362AD-3782-4A5E-A22B-627F3A258C15}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FBB3FD70-EE50-49A6-B245-EE5C0FC7612C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ADD32152-CAD0-4BBF-B008-6C082F4487CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{916B74FE-CF9E-4C53-8EBF-57426465D8F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B61C23F6-9FD3-4F19-8721-4523402FAC4F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BEC6091E-1416-49A1-B602-021CD64D7903}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A68D40C1-3F12-44C4-AA26-37F855C987DE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E617445B-CA86-4B75-8558-A0BAEF723854}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{69569EAE-EB88-42F8-B3DE-EC75805A2A97}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9041D12A-9415-4984-8A45-1B65D5DBA5EE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FAA87F58-56FE-42AC-9C7F-127D9836BEB1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1E875BB-88C1-41E7-9876-2C3C2FBCEC1D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E58CA6B2-73BB-4122-9A44-0C90A64D6478}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{516C55D6-7C6D-46B4-9A66-E8B6181A13C9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5B351628-ABE7-49A1-BD51-33016A5F8D9B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD871D21-2DD0-4ABE-AF35-3590AF1E943C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E8AC957-DF25-42B9-B8CE-4A079B2FE5D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1002B3B6-9782-41C2-9D20-E371392932F9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8DCAD6B-A119-4595-BA53-D281DFF9A1E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48355891-4BF2-456A-AB5D-9EA90DD36081}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62296D38-37D3-4229-A9A4-187679840B1E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8823,7 +8823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1644064E-31DC-4762-9C8D-12646F4C7E6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DADDD3-E715-4A98-8E78-80CBA1FE1C0D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10064,18 +10064,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D4C40FF-69C0-4FF4-BCA5-2F9B1F78CBD4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C1417D21-3173-4D82-BD47-B87A1E64288F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07CCA730-62D6-4A5E-A9FD-F621744DECDB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{82CA1FBA-96FE-4B69-A499-1681B3198D23}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0BA411C-BD14-4EB7-B03B-2C5ABA006DA6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D021D086-1BD7-4A6E-9CEE-B143F563FCFF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC7F102E-7A01-49CD-A987-4F41081FF99E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D4FCC31-B97E-4427-A340-8C668B8FF020}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C1965D2-9ACC-4EF6-86B3-54081F7ACE46}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{611682EC-CE2A-4A1E-9CE0-2AE04D9C05EC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2007120A-593E-4CA9-870E-CB4A1FC2EB8A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0272AADE-A8AA-4E58-9FF8-2780E95D12B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D8EA7D0-3042-4FE7-BB8A-2304F699819C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{49DD2D9F-9710-4305-982A-7E74423289AA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13690049-2D77-4D07-960E-5907C938FE37}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0ABF433A-410E-474F-BD07-DE141AB30355}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{419A109F-D0A5-46EB-ABBD-0510664D43F7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{373D3001-4125-4CBD-B882-08DA8B7A30EC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{71846036-8F10-4BF1-B6B5-F4AD0AD748E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C71356D-88A9-4F44-AD2B-695B90083379}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9171084E-7FF9-4A45-A104-089C2C718CC0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F8DB1BE7-F143-4BF4-AC99-3E66BEAC9974}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{036F430B-3C19-4BD0-ACE5-9F58AA35DA8A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FEB81DBA-6F97-497A-85B4-615DD062DF69}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10088,7 +10088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C095ED4-24E3-49FC-93BF-0C4E16A4F256}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E2E0E3-057C-4F66-ABE0-985ECCF95023}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11325,18 +11325,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4AA89DC8-9FB3-4109-B9F5-02F144B7E053}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA8CC21F-F4D0-4CB2-9C84-D5EE067E7811}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39115B17-E610-4028-9E1D-038E87D797B2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E389F770-00C2-4539-B0A5-BD8D8D6B494E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD3412F3-1832-4D29-9308-8A7CEE3AD263}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{10233EE0-E94E-4DAF-8DED-E3BC60BE6B4F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{63D501E3-A054-4E23-8E31-4705400475B3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80354A61-D703-48B2-B4FE-DD6381907E8C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00D39359-DCE8-48B2-9FCF-419A7F6CBA97}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F80CF2AB-FE97-4063-BAC3-F9CB0574DE2A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F11486D9-763E-4581-82EE-5306C1035ABC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{09351C04-12F5-4F13-BAA0-161A3FAB5162}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{041436D5-2B48-4F1E-A46E-08695EB625E6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E1CF9832-1DA1-42CE-9AAF-529292E5F412}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9743D3C8-6828-46BD-9EEE-15969E1C6070}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BA9E8627-5E33-4D96-943E-290BB409492B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{35D8B769-7A98-4A63-A77F-3C64434103C4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9BC96F4C-E50F-4074-BE1B-565891DAF2FA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{141FC670-A92D-490B-A804-C9431888603C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{25D68340-2502-4939-A12E-CF4EE2CB434E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C33A981-BBE8-48B9-BED2-A011D1D36EC3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5D725FBD-6CFF-4F01-A443-BADE7EB6798E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{145F9FA9-A481-4358-81DC-545C0D85A256}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0DA856EA-E8E6-4242-A56E-90D0FC0CA294}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11349,7 +11349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62C0CC4-C3D6-4498-93FE-3BBAD156D9A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DD1315-01E8-48E6-91CA-BFBE2719C9BB}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12578,18 +12578,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A5E8EF7-2E44-4EA0-8C14-4C73EE502FCC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EF5EFFA9-7F73-4FC7-826C-D75555C74AE1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D450812F-CC5F-403C-A123-455C4A16271B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C8072A82-EB21-4F61-989B-CE1AD452D258}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C56BC50B-DE4C-4170-A256-2FD549772987}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C439EB84-41E5-4BF0-BAC6-4FE806C0AD0D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E1CB49A-8591-413C-B4F0-DF0360EE9AC6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F74D91C-ADAA-4EF1-A3F2-A217D52C267E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C396AFDC-46BA-4F89-BB80-B5EB25CC9129}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{12372738-491D-4F1B-AA3F-476A0130F3C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B679044-CA2E-4C33-A328-171FDAF4EBFA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A63E12C1-6821-43EA-9CDF-59D72C8D9EE0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD85BEC1-A576-435C-9207-6194C315041B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{19837188-A29F-4C0C-A350-B8B5A49BA324}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{055DC2E8-16D5-416B-B619-93D6F8936202}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{83E9FA19-9B82-4950-99BC-29EF3F73C95A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCF1C8D1-5358-4640-9E43-F9BDDAF09A4F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6605F3C8-F89E-4322-BF8E-B940DE982ED8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72C27878-245F-4A9E-998B-544ABAE61395}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB0C65C6-0CD0-4678-BAA5-89E368407AD2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93FF9149-4FB1-4D1A-94C4-0FB2E1E4C154}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{67E67064-3307-4372-8ECE-D22D862AB4CA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0CA93FA2-E17E-44C4-B9A0-9AA46CC6847D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C85E7ED-901F-4C0C-9199-E98FF3D00069}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12602,7 +12602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867B6CB6-ACC7-462C-A06D-022FA10433BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87798E7-14AC-4D90-A67F-C5CFBB43FC2D}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13831,18 +13831,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47C51384-687E-4327-8031-1D63BFB2B1D9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5E16B7F1-DC65-496E-B2D8-7884B87B86AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F755C660-97E1-46FA-967B-E1DA25A4B916}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0FEC6683-5401-4B46-AC5C-2BF8707FABAB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05ED2A52-F083-4DC6-8316-079B358FC26A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{05D86E65-7BB9-47F1-A4CA-238A02DA39F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDE69B66-B1AD-4E31-A65E-F2AD91778B8D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF248486-D61C-4853-8851-7CBC0EBDB5BA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CBB69E79-6845-476B-BBAA-DD74CE392B2C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6ED9BC0D-B5ED-4732-A29A-A93B9FA4D3EE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02DB0031-1771-4666-AFE8-F39AB22618CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B02B4CA8-787D-4F25-BE29-B1FF2EB361B6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B72E69A-954A-41B3-A40B-AB57BC57B217}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{386F5ACE-8D61-4297-BCB0-2A5D5852C3CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63EE49A1-64F1-4DEA-8CA5-5E7FB19411E7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C977176F-4EC2-4D31-B2AE-63B22C0D00FF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1CF3383E-0DA6-4273-98DF-D41A847E2D5C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{12B528D2-32E5-4426-A209-CBCC963C8BB2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CD4AE821-AA18-4730-B799-03BE3F3D77AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE1137A5-25E3-4B2F-AE70-B6BE40B78C16}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A6EEA4A-DBCD-4A06-8D92-2A671FB22FF8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7F81B805-802B-4277-A99D-09BA9D1A5790}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BDB4AD03-5156-46F9-9033-D8BFFC0A6781}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC63408C-FF46-4DFB-8394-C115898D2EA1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13855,7 +13855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAF6551-6FF7-487E-9F99-7D6E961A4BAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8EFF1D-9BD7-4ADA-855D-16665ACCC24C}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15084,18 +15084,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A2EF4B5E-F77E-4D52-BD6B-11598733108E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{100DFC07-DFDE-473B-8EF3-C8CED9A263D3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2BDAB142-1AE7-4699-A4EA-F0574657712D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FA738BFF-E4AD-458E-948A-A6F45E8B9C46}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5317CFB7-7773-4870-A12C-223E14A2A7F9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E5B93F06-1973-46D8-B961-CB5F0E6D7072}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D6C0E69A-D5E3-48C8-8545-E0AB9C33F8BD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F849D744-EF8A-4226-B490-DB95A8CDDAF9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{49281434-0D93-4B68-8E0B-2148B6AA0CC3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F3DED9B3-3AA5-49BC-986B-4566B9FD7FA8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F40E7DA-23DE-4001-BC04-1A2AF579BD2C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96D3C306-3C63-442B-BB11-DE938588106C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{45EFAE23-EF38-4E02-BDBB-E19D46887DCC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1E27C94D-9920-4275-B48A-E48E66AB08DA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4E39752-03CC-4946-9AE1-742755799277}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{58F2FD9C-82A7-4E82-9981-C9F8F480DDC2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8D0A046C-203B-49A2-8EA7-1B81B686BAA5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD7DD921-3B18-4D36-820F-62FC0E76EAF6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C928D7F2-8256-4D28-81EF-C6FDEDA5F446}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0FCE6E5-57A0-4619-B29F-1117B65DA1F8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1824BD21-D20B-4AAE-9AB5-4A27D31A4A54}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E5F3FA03-25A9-4BAB-AF86-32729758FEC3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78D383C3-1292-413E-AF95-5CF3226CA1E9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{962B39AB-8C34-4926-AC7B-975CFE337EBC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15108,7 +15108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9338F9FF-B7EA-404E-96D7-F222841CD234}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43FA032-1A93-4C81-BBCA-D1B65AEEBAED}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16329,18 +16329,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23E80854-BEE7-43F7-A4FD-A5290F3995B1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{655F0FD6-41D4-48A3-AF45-B27E76DE2E79}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{948CA636-DE45-4BA2-B5F3-28D6C10579CD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{86E9ABEB-CE55-4652-9ABC-40594B5D6CAD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C1A1478-397C-49AA-8848-A7662F7D6021}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B553A80-E5F3-48E4-AAEB-FAEA6218C070}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FD7CAB0B-D454-4CE3-87E1-C095FC90969F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CDC24B45-AA5B-4350-B52C-358541F63E49}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4158AC40-EE7C-41DC-9166-AFC21DA3FEA5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1221EA74-4566-4474-BD53-A1C3229CBE98}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99DC9794-D96A-4475-9080-4A643EB3646F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E68C9B0-9B6E-4B05-9B7D-F5FD37A1E681}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ABD5B18B-7C46-4A84-923A-A30A6461A96B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{67334B94-EBB9-4376-9CD0-E390D6D723CB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{937244E4-03C5-48C9-89D4-7C170165A845}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{56D08DD0-03F9-4828-BA50-642D2280EC87}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EBC717B6-9CE9-4379-B4AC-D7A7B870D110}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E54EBD3E-A988-438C-8FD2-FF866A39BE3E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16BCAFFB-FADB-48DB-8E69-29B606C2594B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5093EA6F-105C-4440-A050-378D6EC8F386}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1D88686-269E-4AE4-A931-0E1CBFCBB8DB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7946ACD3-1C20-413D-8333-DDBD60A6B5E4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{331A0891-B792-47F4-9DB1-7C0C21C7CD45}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{43BB2E5C-E070-4178-98C8-44DD5058552D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
